--- a/misc/firewall-rules/firewall_rules.xlsx
+++ b/misc/firewall-rules/firewall_rules.xlsx
@@ -1,98 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logan\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847D0059-86A4-4723-85C1-8096A3B79605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$19</definedName>
+  </definedNames>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Number</t>
+  </si>
   <si>
     <t>Protocol</t>
   </si>
   <si>
-    <t>Source IP</t>
-  </si>
-  <si>
-    <t>Destination IP</t>
-  </si>
-  <si>
-    <t>Destination Port</t>
+    <t xml:space="preserve">Source IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destination IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destination Port</t>
   </si>
   <si>
     <t>Action</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
     <t>TCP</t>
   </si>
   <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>192.168.0.2</t>
+  </si>
+  <si>
     <t>ALLOW</t>
   </si>
   <si>
+    <t>DENY</t>
+  </si>
+  <si>
+    <t>192.168.0.0/24</t>
+  </si>
+  <si>
     <t>UDP</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>DENY</t>
-  </si>
-  <si>
-    <t>192.168.0.2</t>
-  </si>
-  <si>
-    <t>192.168.0.0/24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -114,20 +94,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -140,15 +120,295 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -190,74 +450,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -265,7 +465,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -291,7 +491,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -343,16 +543,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -368,7 +580,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -399,53 +611,46 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" customWidth="1"/>
-    <col min="12" max="12" width="13.26953125" customWidth="1"/>
+    <col customWidth="1" min="3" max="3" width="13.81640625"/>
+    <col customWidth="1" min="4" max="4" width="10.6328125"/>
+    <col customWidth="1" min="5" max="5" width="11.26953125"/>
+    <col customWidth="1" min="12" max="12" width="13.26953125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="28.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -453,19 +658,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3">
         <v>80</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" hidden="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -473,10 +678,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3">
         <v>25</v>
@@ -485,7 +690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -493,19 +698,19 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3">
         <v>443</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" hidden="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -513,10 +718,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3">
         <v>22</v>
@@ -525,7 +730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -533,19 +738,19 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3">
         <v>513</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" hidden="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -553,10 +758,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E7" s="3">
         <v>25565</v>
@@ -565,7 +770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" hidden="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -573,19 +778,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8" s="3">
         <v>631</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" hidden="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -593,10 +798,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E9" s="3">
         <v>9875</v>
@@ -605,47 +810,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3">
         <v>53</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" hidden="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -653,19 +858,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E12" s="3">
         <v>3389</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -673,19 +878,19 @@
         <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3">
         <v>32976</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" hidden="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -693,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>42806</v>
@@ -705,7 +910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" hidden="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -713,19 +918,19 @@
         <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" hidden="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -733,10 +938,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E16" s="3">
         <v>6443</v>
@@ -745,7 +950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -753,19 +958,19 @@
         <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E17" s="3">
         <v>666</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -773,19 +978,19 @@
         <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3">
         <v>23</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -793,20 +998,34 @@
         <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E19" s="4">
         <v>12975</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <autoFilter ref="A1:F19">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="ALLOW"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="any"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="90" verticalDpi="90" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>